--- a/ASLServer/table.xlsx
+++ b/ASLServer/table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5410" uniqueCount="1454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5408" uniqueCount="1454">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -4391,7 +4391,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4454,13 +4454,6 @@
       <b val="true"/>
       <sz val="8"/>
       <color rgb="FF666666"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -4536,7 +4529,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4665,14 +4658,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -4752,18 +4737,18 @@
   </sheetPr>
   <dimension ref="A1:M65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A667" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G669" activeCellId="0" sqref="G669"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A712" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A716" activeCellId="0" sqref="A716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.46153846153846"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.74898785425101"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="3.96356275303644"/>
@@ -32185,16 +32170,16 @@
         <v>303</v>
       </c>
       <c r="H669" s="6" t="n">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="I669" s="6" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="J669" s="6" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="K669" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L669" s="6" t="s">
         <v>17</v>
@@ -34089,17 +34074,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="716" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="717" customFormat="false" ht="9.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
